--- a/Code/Results/Cases/Case_2_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_129/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32411987805664</v>
+        <v>15.10057849630809</v>
       </c>
       <c r="C2">
-        <v>18.73993730321662</v>
+        <v>11.37698729203081</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.1150115121111</v>
+        <v>16.59688031244306</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.042964339649241</v>
+        <v>3.587836969224761</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.00776979744786</v>
+        <v>16.1585145288316</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.65093290008944</v>
+        <v>14.26868350561348</v>
       </c>
       <c r="C3">
-        <v>17.59892880254946</v>
+        <v>10.76881909942569</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.90183475364272</v>
+        <v>15.64775420677554</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.05014857479888</v>
+        <v>3.590295359403196</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.0232015299747</v>
+        <v>16.31841538226039</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56582448443548</v>
+        <v>13.73221647078803</v>
       </c>
       <c r="C4">
-        <v>16.86211098367605</v>
+        <v>10.37592823587151</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.48155329336404</v>
+        <v>15.03971881126983</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.054652024851101</v>
+        <v>3.591880113520168</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.07194511651543</v>
+        <v>16.42480075204937</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10901508844907</v>
+        <v>13.50731571966918</v>
       </c>
       <c r="C5">
-        <v>16.55278232384822</v>
+        <v>10.21102872314305</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.88693389988027</v>
+        <v>14.78585217213869</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.056512037928782</v>
+        <v>3.59254491630988</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.10085036949485</v>
+        <v>16.4701969270732</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.03227685457032</v>
+        <v>13.46959717079582</v>
       </c>
       <c r="C6">
-        <v>16.50087260560724</v>
+        <v>10.18336123015006</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.78722954982215</v>
+        <v>14.74333899549794</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.056822435541969</v>
+        <v>3.592656456062468</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.10617158829851</v>
+        <v>16.47785775762977</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.5597230975094</v>
+        <v>13.72920858024521</v>
       </c>
       <c r="C7">
-        <v>16.85797591292025</v>
+        <v>10.37372359881691</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.47359871486697</v>
+        <v>15.03631933268789</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.054677007099741</v>
+        <v>3.591889002250952</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.07229944340955</v>
+        <v>16.42540473394759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.75913307371579</v>
+        <v>14.81916334307873</v>
       </c>
       <c r="C8">
-        <v>18.35405363945914</v>
+        <v>11.17138817656628</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.3643922569423</v>
+        <v>16.27501025964296</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.045423317743702</v>
+        <v>3.58866903726285</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.00444714095549</v>
+        <v>16.21193305027942</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.61883936458576</v>
+        <v>16.74688857192679</v>
       </c>
       <c r="C9">
-        <v>21.00004657338133</v>
+        <v>12.57754132270443</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.56644183434508</v>
+        <v>18.61360637468819</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.02792901487642</v>
+        <v>3.582948912490946</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21800851839621</v>
+        <v>15.85934373915154</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.1862418272395</v>
+        <v>18.02929488752533</v>
       </c>
       <c r="C10">
-        <v>22.77011181655761</v>
+        <v>13.51065448849431</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.13536630944952</v>
+        <v>20.2726560391692</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.015348652943506</v>
+        <v>3.579104088670131</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.92582381810776</v>
+        <v>15.64184137010998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.29801659723923</v>
+        <v>18.58276029904653</v>
       </c>
       <c r="C11">
-        <v>23.53839228648939</v>
+        <v>13.9129329313141</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.71217304040412</v>
+        <v>20.98503927773836</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.009652720829273</v>
+        <v>3.577431697676962</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.51754032424354</v>
+        <v>15.55220301588404</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.71113443129961</v>
+        <v>18.78799118730951</v>
       </c>
       <c r="C12">
-        <v>23.82410255243887</v>
+        <v>14.06204310601366</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.30334200385256</v>
+        <v>21.24875178547164</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.007496625934454</v>
+        <v>3.576809353632264</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.74383010382153</v>
+        <v>15.51962187782693</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.62250968940821</v>
+        <v>18.74398542996855</v>
       </c>
       <c r="C13">
-        <v>23.76280027101911</v>
+        <v>14.03007336879097</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.17627337001156</v>
+        <v>21.19222516878587</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.007960995417919</v>
+        <v>3.576942900424838</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.69499448032673</v>
+        <v>15.52657778795521</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.33216097285707</v>
+        <v>18.59973230001565</v>
       </c>
       <c r="C14">
-        <v>23.56200188403492</v>
+        <v>13.92526508118121</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.76092288563904</v>
+        <v>21.00685614722373</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.009475339828281</v>
+        <v>3.577380277900693</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.53611237714774</v>
+        <v>15.54949508551007</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.15329277490142</v>
+        <v>18.51080463835326</v>
       </c>
       <c r="C15">
-        <v>23.43833019934505</v>
+        <v>13.86064632152512</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.50576120398571</v>
+        <v>20.89252521126337</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.010402930525403</v>
+        <v>3.577649608816804</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.43908380301714</v>
+        <v>15.56371083924995</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.11247037983964</v>
+        <v>17.99251790636597</v>
       </c>
       <c r="C16">
-        <v>22.71916691181723</v>
+        <v>13.48391504258623</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.03144276943154</v>
+        <v>20.22525139082524</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.015721186438033</v>
+        <v>3.57921491983779</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.8874610695197</v>
+        <v>15.64788880291369</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.45970497698799</v>
+        <v>17.66686320518416</v>
       </c>
       <c r="C17">
-        <v>22.2685816191564</v>
+        <v>13.24709162589515</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.11555521519463</v>
+        <v>19.8050845660391</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>20.20408069617459</v>
       </c>
       <c r="G17">
-        <v>2.018988620534783</v>
+        <v>3.580194769119316</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.55296015544425</v>
+        <v>15.70192999430557</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.07895414275022</v>
+        <v>17.47674247176683</v>
       </c>
       <c r="C18">
-        <v>22.00593403749813</v>
+        <v>13.10878886926816</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.5843109757523</v>
+        <v>19.55942964652814</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>19.95656407809808</v>
       </c>
       <c r="G18">
-        <v>2.020870701531254</v>
+        <v>3.580765570061527</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.42367594957637</v>
+        <v>15.73388732272799</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.94912324688268</v>
+        <v>17.41188961919109</v>
       </c>
       <c r="C19">
-        <v>21.91640551628037</v>
+        <v>13.0616043833986</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.4036544011279</v>
+        <v>19.4755694308064</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>19.87204792380562</v>
       </c>
       <c r="G19">
-        <v>2.02150849867395</v>
+        <v>3.580960075099934</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.40245059968082</v>
+        <v>15.74485692765616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.5297399440318</v>
+        <v>17.70182124502114</v>
       </c>
       <c r="C20">
-        <v>22.31690707181296</v>
+        <v>13.27251825765834</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.21350823290801</v>
+        <v>19.85022433053811</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>20.24955283636157</v>
       </c>
       <c r="G20">
-        <v>2.018640533871489</v>
+        <v>3.580089715986387</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.5884202208245</v>
+        <v>15.69608655510414</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.41765588722741</v>
+        <v>18.64222148475511</v>
       </c>
       <c r="C21">
-        <v>23.62112210665491</v>
+        <v>13.95613752610697</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.88307560932391</v>
+        <v>21.0614674822927</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.009030543884511</v>
+        <v>3.577251512770157</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.58271902265028</v>
+        <v>15.54272652787774</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.60564843028829</v>
+        <v>19.23142995009985</v>
       </c>
       <c r="C22">
-        <v>24.44312823346749</v>
+        <v>14.38412123717443</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.5936578165288</v>
+        <v>21.81782783699374</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.002752984204867</v>
+        <v>3.575460401269853</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.24556733358127</v>
+        <v>15.45045318695732</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.97572403025822</v>
+        <v>18.91929673146743</v>
       </c>
       <c r="C23">
-        <v>24.00715189404312</v>
+        <v>14.15742705757384</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.68352117723841</v>
+        <v>21.4173586030368</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.006104265197337</v>
+        <v>3.576410533693135</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.89056972004012</v>
+        <v>15.49896482909649</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.49809417874154</v>
+        <v>17.68602573610572</v>
       </c>
       <c r="C24">
-        <v>22.29507035466176</v>
+        <v>13.26102957123496</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.16923833412842</v>
+        <v>19.82982940237258</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.018797892446859</v>
+        <v>3.580137187225917</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.57238453358757</v>
+        <v>15.69872560875873</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62244648926008</v>
+        <v>16.2485494308624</v>
       </c>
       <c r="C25">
-        <v>20.31498054058134</v>
+        <v>12.21448973395496</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.20608065786302</v>
+        <v>17.96487938914879</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.032603938792461</v>
+        <v>3.584433208672118</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.11843431121916</v>
+        <v>15.9475283000748</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_129/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.10057849630809</v>
+        <v>25.32411987805661</v>
       </c>
       <c r="C2">
-        <v>11.37698729203081</v>
+        <v>18.7399373032167</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>16.59688031244306</v>
+        <v>30.11501151211111</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.587836969224761</v>
+        <v>2.042964339649509</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.1585145288316</v>
+        <v>10.00776979744791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.26868350561348</v>
+        <v>23.65093290008939</v>
       </c>
       <c r="C3">
-        <v>10.76881909942569</v>
+        <v>17.59892880254954</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>15.64775420677554</v>
+        <v>27.9018347536427</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.590295359403196</v>
+        <v>2.050148574798879</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.31841538226039</v>
+        <v>10.02320152997474</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.73221647078803</v>
+        <v>22.56582448443544</v>
       </c>
       <c r="C4">
-        <v>10.37592823587151</v>
+        <v>16.86211098367609</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.03971881126983</v>
+        <v>26.48155329336401</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.591880113520168</v>
+        <v>2.054652024850566</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.42480075204937</v>
+        <v>10.07194511651558</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.50731571966918</v>
+        <v>22.10901508844902</v>
       </c>
       <c r="C5">
-        <v>10.21102872314305</v>
+        <v>16.55278232384821</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14.78585217213869</v>
+        <v>25.88693389988021</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.59254491630988</v>
+        <v>2.056512037928514</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.4701969270732</v>
+        <v>10.10085036949483</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.46959717079582</v>
+        <v>22.03227685457029</v>
       </c>
       <c r="C6">
-        <v>10.18336123015006</v>
+        <v>16.50087260560731</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>14.74333899549794</v>
+        <v>25.78722954982208</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.592656456062468</v>
+        <v>2.056822435541969</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.47785775762977</v>
+        <v>10.10617158829855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.72920858024521</v>
+        <v>22.55972309750947</v>
       </c>
       <c r="C7">
-        <v>10.37372359881691</v>
+        <v>16.85797591292004</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.03631933268789</v>
+        <v>26.47359871486697</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.591889002250952</v>
+        <v>2.054677007099472</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.42540473394759</v>
+        <v>10.07229944340948</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.81916334307873</v>
+        <v>24.75913307371571</v>
       </c>
       <c r="C8">
-        <v>11.17138817656628</v>
+        <v>18.35405363945912</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.27501025964296</v>
+        <v>29.36439225694226</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.58866903726285</v>
+        <v>2.045423317743703</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.21193305027942</v>
+        <v>10.00444714095562</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.74688857192679</v>
+        <v>28.61883936458583</v>
       </c>
       <c r="C9">
-        <v>12.57754132270443</v>
+        <v>21.00004657338132</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>18.61360637468819</v>
+        <v>34.5664418343452</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>3.582948912490946</v>
+        <v>2.027929014876286</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.85934373915154</v>
+        <v>10.21800851839618</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.02929488752533</v>
+        <v>31.18624182723953</v>
       </c>
       <c r="C10">
-        <v>13.51065448849431</v>
+        <v>22.77011181655754</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.2726560391692</v>
+        <v>38.13536630944952</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>3.579104088670131</v>
+        <v>2.015348652943639</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.64184137010998</v>
+        <v>10.92582381810782</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.58276029904653</v>
+        <v>32.29801659723911</v>
       </c>
       <c r="C11">
-        <v>13.9129329313141</v>
+        <v>23.53839228648934</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>20.98503927773836</v>
+        <v>39.71217304040407</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>3.577431697676962</v>
+        <v>2.009652720829406</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.55220301588404</v>
+        <v>11.51754032424345</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.78799118730951</v>
+        <v>32.71113443129958</v>
       </c>
       <c r="C12">
-        <v>14.06204310601366</v>
+        <v>23.82410255243887</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.24875178547164</v>
+        <v>40.30334200385253</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>3.576809353632264</v>
+        <v>2.007496625934455</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.51962187782693</v>
+        <v>11.74383010382142</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.74398542996855</v>
+        <v>32.62250968940825</v>
       </c>
       <c r="C13">
-        <v>14.03007336879097</v>
+        <v>23.76280027101917</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.19222516878587</v>
+        <v>40.17627337001151</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.576942900424838</v>
+        <v>2.007960995418186</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.52657778795521</v>
+        <v>11.69499448032681</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.59973230001565</v>
+        <v>32.33216097285707</v>
       </c>
       <c r="C14">
-        <v>13.92526508118121</v>
+        <v>23.56200188403483</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.00685614722373</v>
+        <v>39.76092288563903</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>3.577380277900693</v>
+        <v>2.009475339828282</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.54949508551007</v>
+        <v>11.53611237714785</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.51080463835326</v>
+        <v>32.1532927749015</v>
       </c>
       <c r="C15">
-        <v>13.86064632152512</v>
+        <v>23.43833019934497</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>20.89252521126337</v>
+        <v>39.5057612039858</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>3.577649608816804</v>
+        <v>2.010402930525269</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.56371083924995</v>
+        <v>11.43908380301728</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.99251790636597</v>
+        <v>31.11247037983962</v>
       </c>
       <c r="C16">
-        <v>13.48391504258623</v>
+        <v>22.71916691181725</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.22525139082524</v>
+        <v>38.03144276943166</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>3.57921491983779</v>
+        <v>2.015721186437898</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.64788880291369</v>
+        <v>10.88746106951971</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.66686320518416</v>
+        <v>30.45970497698804</v>
       </c>
       <c r="C17">
-        <v>13.24709162589515</v>
+        <v>22.26858161915634</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.8050845660391</v>
+        <v>37.11555521519465</v>
       </c>
       <c r="F17">
-        <v>20.20408069617459</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>3.580194769119316</v>
+        <v>2.018988620534516</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.70192999430557</v>
+        <v>10.55296015544423</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.47674247176683</v>
+        <v>30.07895414275025</v>
       </c>
       <c r="C18">
-        <v>13.10878886926816</v>
+        <v>22.00593403749807</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.55942964652814</v>
+        <v>36.58431097575242</v>
       </c>
       <c r="F18">
-        <v>19.95656407809808</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>3.580765570061527</v>
+        <v>2.020870701531121</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.73388732272799</v>
+        <v>10.42367594957637</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.41188961919109</v>
+        <v>29.94912324688266</v>
       </c>
       <c r="C19">
-        <v>13.0616043833986</v>
+        <v>21.91640551628036</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.4755694308064</v>
+        <v>36.40365440112805</v>
       </c>
       <c r="F19">
-        <v>19.87204792380562</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>3.580960075099934</v>
+        <v>2.021508498673817</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.74485692765616</v>
+        <v>10.40245059968073</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.70182124502114</v>
+        <v>30.52973994403181</v>
       </c>
       <c r="C20">
-        <v>13.27251825765834</v>
+        <v>22.31690707181297</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>19.85022433053811</v>
+        <v>37.2135082329081</v>
       </c>
       <c r="F20">
-        <v>20.24955283636157</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>3.580089715986387</v>
+        <v>2.018640533871757</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.69608655510414</v>
+        <v>10.58842022082456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.64222148475511</v>
+        <v>32.41765588722732</v>
       </c>
       <c r="C21">
-        <v>13.95613752610697</v>
+        <v>23.62112210665498</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.0614674822927</v>
+        <v>39.88307560932383</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>3.577251512770157</v>
+        <v>2.009030543884644</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.54272652787774</v>
+        <v>11.58271902265016</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.23142995009985</v>
+        <v>33.60564843028839</v>
       </c>
       <c r="C22">
-        <v>14.38412123717443</v>
+        <v>24.44312823346747</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.81782783699374</v>
+        <v>41.59365781652885</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>3.575460401269853</v>
+        <v>2.002752984204867</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.45045318695732</v>
+        <v>12.24556733358138</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.91929673146743</v>
+        <v>32.97572403025816</v>
       </c>
       <c r="C23">
-        <v>14.15742705757384</v>
+        <v>24.00715189404315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.4173586030368</v>
+        <v>40.68352117723845</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>3.576410533693135</v>
+        <v>2.006104265197473</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.49896482909649</v>
+        <v>11.89056972004006</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.68602573610572</v>
+        <v>30.49809417874154</v>
       </c>
       <c r="C24">
-        <v>13.26102957123496</v>
+        <v>22.29507035466168</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>19.82982940237258</v>
+        <v>37.16923833412839</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>3.580137187225917</v>
+        <v>2.018797892446858</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.69872560875873</v>
+        <v>10.57238453358767</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.2485494308624</v>
+        <v>27.62244648926008</v>
       </c>
       <c r="C25">
-        <v>12.21448973395496</v>
+        <v>20.31498054058137</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>17.96487938914879</v>
+        <v>33.20608065786299</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>3.584433208672118</v>
+        <v>2.032603938792596</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.9475283000748</v>
+        <v>10.11843431121907</v>
       </c>
     </row>
   </sheetData>
